--- a/rhla_analysis/rhla1_3_exp_result/result.xlsx
+++ b/rhla_analysis/rhla1_3_exp_result/result.xlsx
@@ -448,77 +448,77 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>k=0标准差</t>
+          <t>k=0 Standard Deviation</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2.504495971454084</v>
+        <v>2.504495971454092</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>k=0中位数</t>
+          <t>k=0 Median</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>8.996652799550384</v>
+        <v>8.996652799550358</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>k=0平均值</t>
+          <t>k=0 Mean</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>8.333832268123649</v>
+        <v>8.333832268123654</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>k=0去出最大值最小值平均数</t>
+          <t>k=0 Mean without extremes</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>8.403405737677186</v>
+        <v>8.403405737677181</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>k=0ex_rs平均值</t>
+          <t>k=0 Extrema RS Mean</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.04185848252344416</v>
+        <v>0.04185848252344417</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>k=1标准差</t>
+          <t>k=1 Standard Deviation</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>4.728589723460965</v>
+        <v>4.728589723460945</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>k=1中位数</t>
+          <t>k=1 Median</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>10.45179814794263</v>
+        <v>10.45179814794261</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>k=1平均值</t>
+          <t>k=1 Mean</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -528,47 +528,47 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>k=1去出最大值最小值平均数</t>
+          <t>k=1 Mean without extremes</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>11.01393917056599</v>
+        <v>11.01393917056601</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>k=1ex_rs平均值</t>
+          <t>k=1 Extrema RS Mean</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.05733162830349532</v>
+        <v>0.05733162830349531</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>k=2标准差</t>
+          <t>k=2 Standard Deviation</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>4.763985021726493</v>
+        <v>4.763985021726498</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>k=2中位数</t>
+          <t>k=2 Median</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>12.08933709906386</v>
+        <v>12.08933709906389</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>k=2平均值</t>
+          <t>k=2 Mean</t>
         </is>
       </c>
       <c r="B14" t="n">
@@ -578,17 +578,17 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>k=2去出最大值最小值平均数</t>
+          <t>k=2 Mean without extremes</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>12.23565362499053</v>
+        <v>12.23565362499052</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>k=2ex_rs平均值</t>
+          <t>k=2 Extrema RS Mean</t>
         </is>
       </c>
       <c r="B16" t="n">
@@ -598,97 +598,97 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>k=3标准差</t>
+          <t>k=3 Standard Deviation</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>7.635624278331055</v>
+        <v>7.635624278330973</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>k=3中位数</t>
+          <t>k=3 Median</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>14.90424446788386</v>
+        <v>14.90424446788397</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>k=3平均值</t>
+          <t>k=3 Mean</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>17.95459217089258</v>
+        <v>17.9545921708926</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>k=3去出最大值最小值平均数</t>
+          <t>k=3 Mean without extremes</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>16.40789656383489</v>
+        <v>16.40789656383495</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>k=3ex_rs平均值</t>
+          <t>k=3 Extrema RS Mean</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.08243819266837171</v>
+        <v>0.0824381926683717</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>k=4标准差</t>
+          <t>k=4 Standard Deviation</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>7.658567392117607</v>
+        <v>7.658567392117646</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>k=4中位数</t>
+          <t>k=4 Median</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>22.28606846004048</v>
+        <v>22.2860684600404</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>k=4平均值</t>
+          <t>k=4 Mean</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>22.38837745840335</v>
+        <v>22.38837745840326</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>k=4去出最大值最小值平均数</t>
+          <t>k=4 Mean without extremes</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>21.75581949204804</v>
+        <v>21.75581949204792</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>k=4ex_rs平均值</t>
+          <t>k=4 Extrema RS Mean</t>
         </is>
       </c>
       <c r="B26" t="n">
@@ -698,47 +698,47 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>k=5标准差</t>
+          <t>k=5 Standard Deviation</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>13.86436771787003</v>
+        <v>13.86436771787015</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>k=5中位数</t>
+          <t>k=5 Median</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>28.63825082726881</v>
+        <v>28.63825082726874</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>k=5平均值</t>
+          <t>k=5 Mean</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>29.20229676299609</v>
+        <v>29.20229676299611</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>k=5去出最大值最小值平均数</t>
+          <t>k=5 Mean without extremes</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>27.65385829894379</v>
+        <v>27.65385829894377</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>k=5ex_rs平均值</t>
+          <t>k=5 Extrema RS Mean</t>
         </is>
       </c>
       <c r="B31" t="n">
@@ -748,17 +748,17 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>k=6标准差</t>
+          <t>k=6 Standard Deviation</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>20.44555747738097</v>
+        <v>20.44555747738098</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>k=6中位数</t>
+          <t>k=6 Median</t>
         </is>
       </c>
       <c r="B33" t="n">
@@ -768,27 +768,27 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>k=6平均值</t>
+          <t>k=6 Mean</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>37.14557043074772</v>
+        <v>37.14557043074775</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>k=6去出最大值最小值平均数</t>
+          <t>k=6 Mean without extremes</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>33.8479661689602</v>
+        <v>33.84796616896022</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>k=6ex_rs平均值</t>
+          <t>k=6 Extrema RS Mean</t>
         </is>
       </c>
       <c r="B36" t="n">
@@ -798,47 +798,47 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>k=7标准差</t>
+          <t>k=7 Standard Deviation</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>18.8728548168546</v>
+        <v>18.87285481685466</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>k=7中位数</t>
+          <t>k=7 Median</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>53.44290356127861</v>
+        <v>53.44290356127856</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>k=7平均值</t>
+          <t>k=7 Mean</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>48.54092207505104</v>
+        <v>48.54092207505097</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>k=7去出最大值最小值平均数</t>
+          <t>k=7 Mean without extremes</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>49.29095537737405</v>
+        <v>49.29095537737398</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>k=7ex_rs平均值</t>
+          <t>k=7 Extrema RS Mean</t>
         </is>
       </c>
       <c r="B41" t="n">
@@ -848,47 +848,47 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>k=8标准差</t>
+          <t>k=8 Standard Deviation</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>12.34242528366545</v>
+        <v>12.34242528366542</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>k=8中位数</t>
+          <t>k=8 Median</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>69.38616689520894</v>
+        <v>69.38616689520896</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>k=8平均值</t>
+          <t>k=8 Mean</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>67.9616120448765</v>
+        <v>67.96161204487655</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>k=8去出最大值最小值平均数</t>
+          <t>k=8 Mean without extremes</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>68.81161490408962</v>
+        <v>68.81161490408968</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>k=8ex_rs平均值</t>
+          <t>k=8 Extrema RS Mean</t>
         </is>
       </c>
       <c r="B46" t="n">
@@ -898,47 +898,47 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>k=9标准差</t>
+          <t>k=9 Standard Deviation</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>25.61327473295955</v>
+        <v>25.61327473295953</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>k=9中位数</t>
+          <t>k=9 Median</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>83.50105518704027</v>
+        <v>83.50105518704049</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>k=9平均值</t>
+          <t>k=9 Mean</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>81.27594441987745</v>
+        <v>81.27594441987776</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>k=9去出最大值最小值平均数</t>
+          <t>k=9 Mean without extremes</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>79.77837893312633</v>
+        <v>79.77837893312676</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>k=9ex_rs平均值</t>
+          <t>k=9 Extrema RS Mean</t>
         </is>
       </c>
       <c r="B51" t="n">
@@ -948,47 +948,47 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>k=10标准差</t>
+          <t>k=10 Standard Deviation</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>53.04000089594187</v>
+        <v>53.04000089594194</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>k=10中位数</t>
+          <t>k=10 Median</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>106.585916145814</v>
+        <v>106.5859161458146</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>k=10平均值</t>
+          <t>k=10 Mean</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>127.7110759466868</v>
+        <v>127.7110759466871</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>k=10去出最大值最小值平均数</t>
+          <t>k=10 Mean without extremes</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>117.2256378632735</v>
+        <v>117.2256378632738</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>k=10ex_rs平均值</t>
+          <t>k=10 Extrema RS Mean</t>
         </is>
       </c>
       <c r="B56" t="n">
